--- a/excel_templates/车机表.xlsx
+++ b/excel_templates/车机表.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-28</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/excel_templates/车机表.xlsx
+++ b/excel_templates/车机表.xlsx
@@ -558,23 +558,23 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>lan</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>13986903203.0</t>
+          <t>13800138001.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-02-06 13:03</t>
+          <t>2026-02-09 11:08</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>测试 - 用于功能测试</t>
+          <t>测试</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-02-28</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -595,11 +595,7 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -624,7 +620,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>丢失</t>
+          <t>已损坏</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -668,13 +664,17 @@
           <t>否</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2026-02-06 13:36</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>被我一拳打爆了</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:40</t>
+        </is>
+      </c>
       <c r="R3" t="inlineStr">
         <is>
           <t>lan</t>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>借出</t>
+          <t>丢失</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1248,10 +1248,18 @@
           <t>否</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2026-02-09 09:53</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1316,7 +1324,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-02-03</t>
+          <t>2026-02-09</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1714,17 +1722,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>在库</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>lan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>13800138001.0</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2026-02-09 10:30</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>测试 - 用于功能测试</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>用户自助</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>否</t>

--- a/excel_templates/车机表.xlsx
+++ b/excel_templates/车机表.xlsx
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>丢失</t>
+          <t>已损坏</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1685,13 +1685,17 @@
           <t>否</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2026-02-06 16:59</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>电池损坏，屏幕破裂</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2026-02-09 22:32</t>
+        </is>
+      </c>
       <c r="R18" t="inlineStr">
         <is>
           <t>test</t>

--- a/excel_templates/车机表.xlsx
+++ b/excel_templates/车机表.xlsx
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>已损坏</t>
+          <t>借出</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-02-06 16:59</t>
+          <t>2026-02-09 22:52</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2026-02-13</t>
+          <t>2026-02-16</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1686,16 +1686,8 @@
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>电池损坏，屏幕破裂</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2026-02-09 22:32</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
           <t>test</t>
